--- a/Jupyter/Neural Netwroks/PyTorch/Material ID.xlsx
+++ b/Jupyter/Neural Netwroks/PyTorch/Material ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Repos\DatabaseCodes\Jupyter\Neural Netwroks\PyTorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C45E51-AF5A-4BAB-9BF3-16EB2A98D549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273877A8-6D52-4DA4-9706-C253258F8E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Eurofer</t>
   </si>
@@ -98,27 +98,6 @@
     <t>ageing temp (C )</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -245,9 +224,6 @@
     <t>Dislocation density (m^-2)</t>
   </si>
   <si>
-    <t>Target Properties T{prop, value]</t>
-  </si>
-  <si>
     <t>Environment E{environment, value}</t>
   </si>
   <si>
@@ -257,9 +233,6 @@
     <t>Composition C{element, value}</t>
   </si>
   <si>
-    <t>Output layer:   T</t>
-  </si>
-  <si>
     <t>Input layer: {E,S,C,M}</t>
   </si>
   <si>
@@ -267,6 +240,33 @@
   </si>
   <si>
     <t>array size</t>
+  </si>
+  <si>
+    <t>Target Properties P{prop, value]</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>Output layer:   P</t>
   </si>
 </sst>
 </file>
@@ -282,7 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -290,12 +289,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -307,14 +342,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
+    <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,408 +645,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E347D55C-7D1B-4C4C-AEC1-4B9FDC5D4401}">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="I3" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
         <f>3+8+9+6</f>
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>0.1</v>
-      </c>
-      <c r="E31">
-        <v>0.1</v>
-      </c>
-      <c r="F31">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>0.2</v>
-      </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-      <c r="F32">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>0.2</v>
-      </c>
-      <c r="E33">
-        <v>0.2</v>
-      </c>
-      <c r="F33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>1.2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>0.06</v>
-      </c>
-      <c r="E35">
-        <v>0.1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>0.05</v>
-      </c>
-      <c r="E36">
-        <v>0.2</v>
-      </c>
-      <c r="F36">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
+      <c r="C49" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
